--- a/EstimatedValue.xlsx
+++ b/EstimatedValue.xlsx
@@ -45897,7 +45897,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>4720 Grimsby Dr</t>
+          <t>1231 Minnesota Ave</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -45912,37 +45912,37 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>95130</t>
+          <t>95125</t>
         </is>
       </c>
       <c r="H389" t="n">
-        <v>1998000</v>
+        <v>1800000</v>
       </c>
       <c r="I389" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J389" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="L389" t="n">
-        <v>1354</v>
+        <v>1250</v>
       </c>
       <c r="M389" t="n">
-        <v>5657</v>
+        <v>7810</v>
       </c>
       <c r="N389" t="n">
-        <v>1963</v>
+        <v>1908</v>
       </c>
       <c r="O389" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P389" t="n">
-        <v>1476</v>
+        <v>1440</v>
       </c>
       <c r="Q389" t="n">
         <v>0</v>
@@ -45952,29 +45952,21 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S389" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T389" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:00 PM</t>
-        </is>
-      </c>
+      <c r="S389" t="inlineStr"/>
+      <c r="T389" t="inlineStr"/>
       <c r="U389" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/4720-Grimsby-Dr-95130/home/1121895</t>
+          <t>https://www.redfin.com/CA/San-Jose/1231-Minnesota-Ave-95125/home/1120203</t>
         </is>
       </c>
       <c r="V389" t="inlineStr">
         <is>
-          <t>MLSListings</t>
+          <t>bridgeMLS, Bay East AOR, or Contra Costa AOR</t>
         </is>
       </c>
       <c r="W389" t="inlineStr">
         <is>
-          <t>ML81918278</t>
+          <t>41018702</t>
         </is>
       </c>
       <c r="X389" t="inlineStr">
@@ -45988,21 +45980,21 @@
         </is>
       </c>
       <c r="Z389" t="n">
-        <v>37.2801233</v>
+        <v>37.3015083</v>
       </c>
       <c r="AA389" t="n">
-        <v>-121.9843416</v>
+        <v>-121.903018</v>
       </c>
       <c r="AB389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grimsby Dr</t>
+          <t xml:space="preserve"> Minnesota Ave</t>
         </is>
       </c>
       <c r="AC389" t="n">
-        <v>1481285.305544092</v>
+        <v>1336303.193029281</v>
       </c>
       <c r="AD389" t="n">
-        <v>1.348828610208965</v>
+        <v>1.346999699910587</v>
       </c>
     </row>
     <row r="390">
@@ -46019,7 +46011,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>49 S 20Th St</t>
+          <t>4720 Grimsby Dr</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -46034,37 +46026,37 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95130</t>
         </is>
       </c>
       <c r="H390" t="n">
-        <v>1790000</v>
+        <v>1998000</v>
       </c>
       <c r="I390" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J390" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Central San Jose</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="L390" t="n">
-        <v>2327</v>
+        <v>1354</v>
       </c>
       <c r="M390" t="n">
-        <v>5850</v>
+        <v>5657</v>
       </c>
       <c r="N390" t="n">
-        <v>2022</v>
+        <v>1963</v>
       </c>
       <c r="O390" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P390" t="n">
-        <v>769</v>
+        <v>1476</v>
       </c>
       <c r="Q390" t="n">
         <v>0</v>
@@ -46074,21 +46066,29 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S390" t="inlineStr"/>
-      <c r="T390" t="inlineStr"/>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:00 PM</t>
+        </is>
+      </c>
       <c r="U390" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/49-S-20th-St-95116/home/873155</t>
+          <t>https://www.redfin.com/CA/San-Jose/4720-Grimsby-Dr-95130/home/1121895</t>
         </is>
       </c>
       <c r="V390" t="inlineStr">
         <is>
-          <t>bridgeMLS, Bay East AOR, or Contra Costa AOR</t>
+          <t>MLSListings</t>
         </is>
       </c>
       <c r="W390" t="inlineStr">
         <is>
-          <t>41019456</t>
+          <t>ML81918278</t>
         </is>
       </c>
       <c r="X390" t="inlineStr">
@@ -46102,21 +46102,21 @@
         </is>
       </c>
       <c r="Z390" t="n">
-        <v>37.3438975</v>
+        <v>37.2801233</v>
       </c>
       <c r="AA390" t="n">
-        <v>-121.8707371</v>
+        <v>-121.9843416</v>
       </c>
       <c r="AB390" t="inlineStr">
         <is>
-          <t>Th St</t>
+          <t xml:space="preserve"> Grimsby Dr</t>
         </is>
       </c>
       <c r="AC390" t="n">
-        <v>1324080.28128895</v>
+        <v>1481285.305544092</v>
       </c>
       <c r="AD390" t="n">
-        <v>1.351881774311669</v>
+        <v>1.348828610208965</v>
       </c>
     </row>
     <row r="391">
@@ -46133,7 +46133,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>1387 Prevost St</t>
+          <t>49 S 20Th St</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -46148,37 +46148,37 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>95125</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H391" t="n">
-        <v>2598000</v>
+        <v>1790000</v>
       </c>
       <c r="I391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J391" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>Central San Jose</t>
         </is>
       </c>
       <c r="L391" t="n">
-        <v>2339</v>
+        <v>2327</v>
       </c>
       <c r="M391" t="n">
-        <v>5380</v>
+        <v>5850</v>
       </c>
       <c r="N391" t="n">
-        <v>1940</v>
+        <v>2022</v>
       </c>
       <c r="O391" t="n">
         <v>2</v>
       </c>
       <c r="P391" t="n">
-        <v>1111</v>
+        <v>769</v>
       </c>
       <c r="Q391" t="n">
         <v>0</v>
@@ -46188,29 +46188,21 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S391" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T391" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:00 PM</t>
-        </is>
-      </c>
+      <c r="S391" t="inlineStr"/>
+      <c r="T391" t="inlineStr"/>
       <c r="U391" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1387-Prevost-St-95125/home/1831715</t>
+          <t>https://www.redfin.com/CA/San-Jose/49-S-20th-St-95116/home/873155</t>
         </is>
       </c>
       <c r="V391" t="inlineStr">
         <is>
-          <t>MLSListings</t>
+          <t>bridgeMLS, Bay East AOR, or Contra Costa AOR</t>
         </is>
       </c>
       <c r="W391" t="inlineStr">
         <is>
-          <t>ML81916974</t>
+          <t>41019456</t>
         </is>
       </c>
       <c r="X391" t="inlineStr">
@@ -46224,21 +46216,21 @@
         </is>
       </c>
       <c r="Z391" t="n">
-        <v>37.3094385</v>
+        <v>37.3438975</v>
       </c>
       <c r="AA391" t="n">
-        <v>-121.8893687</v>
+        <v>-121.8707371</v>
       </c>
       <c r="AB391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Prevost St</t>
+          <t>Th St</t>
         </is>
       </c>
       <c r="AC391" t="n">
-        <v>1920062.695215916</v>
+        <v>1324080.28128895</v>
       </c>
       <c r="AD391" t="n">
-        <v>1.353080816826061</v>
+        <v>1.351881774311669</v>
       </c>
     </row>
     <row r="392">
@@ -46255,7 +46247,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>3223 Fieldgate Ct</t>
+          <t>1387 Prevost St</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -46270,17 +46262,17 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>95148</t>
+          <t>95125</t>
         </is>
       </c>
       <c r="H392" t="n">
-        <v>1699000</v>
+        <v>2598000</v>
       </c>
       <c r="I392" t="n">
         <v>4</v>
       </c>
       <c r="J392" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -46288,19 +46280,19 @@
         </is>
       </c>
       <c r="L392" t="n">
-        <v>1932</v>
+        <v>2339</v>
       </c>
       <c r="M392" t="n">
-        <v>6111</v>
+        <v>5380</v>
       </c>
       <c r="N392" t="n">
-        <v>1985</v>
+        <v>1940</v>
       </c>
       <c r="O392" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P392" t="n">
-        <v>879</v>
+        <v>1111</v>
       </c>
       <c r="Q392" t="n">
         <v>0</v>
@@ -46310,11 +46302,19 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S392" t="inlineStr"/>
-      <c r="T392" t="inlineStr"/>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:00 PM</t>
+        </is>
+      </c>
       <c r="U392" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/3223-Fieldgate-Ct-95148/home/603136</t>
+          <t>https://www.redfin.com/CA/San-Jose/1387-Prevost-St-95125/home/1831715</t>
         </is>
       </c>
       <c r="V392" t="inlineStr">
@@ -46324,7 +46324,7 @@
       </c>
       <c r="W392" t="inlineStr">
         <is>
-          <t>ML81916971</t>
+          <t>ML81916974</t>
         </is>
       </c>
       <c r="X392" t="inlineStr">
@@ -46338,21 +46338,21 @@
         </is>
       </c>
       <c r="Z392" t="n">
-        <v>37.3231901</v>
+        <v>37.3094385</v>
       </c>
       <c r="AA392" t="n">
-        <v>-121.7828731</v>
+        <v>-121.8893687</v>
       </c>
       <c r="AB392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fieldgate Ct</t>
+          <t xml:space="preserve"> Prevost St</t>
         </is>
       </c>
       <c r="AC392" t="n">
-        <v>1251533.924839719</v>
+        <v>1920062.695215916</v>
       </c>
       <c r="AD392" t="n">
-        <v>1.357534115759256</v>
+        <v>1.353080816826061</v>
       </c>
     </row>
     <row r="393">
@@ -46364,12 +46364,12 @@
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>1059 Norfolk Dr</t>
+          <t>3223 Fieldgate Ct</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -46384,14 +46384,14 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>95129</t>
+          <t>95148</t>
         </is>
       </c>
       <c r="H393" t="n">
-        <v>1729999</v>
+        <v>1699000</v>
       </c>
       <c r="I393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J393" t="n">
         <v>2.5</v>
@@ -46402,41 +46402,33 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>1532</v>
+        <v>1932</v>
       </c>
       <c r="M393" t="n">
-        <v>1904</v>
+        <v>6111</v>
       </c>
       <c r="N393" t="n">
-        <v>1972</v>
+        <v>1985</v>
       </c>
       <c r="O393" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="P393" t="n">
-        <v>1129</v>
+        <v>879</v>
       </c>
       <c r="Q393" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S393" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:30 PM</t>
-        </is>
-      </c>
-      <c r="T393" t="inlineStr">
-        <is>
-          <t>February-19-2023 03:30 PM</t>
-        </is>
-      </c>
+      <c r="S393" t="inlineStr"/>
+      <c r="T393" t="inlineStr"/>
       <c r="U393" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1059-Norfolk-Dr-95129/home/1201045</t>
+          <t>https://www.redfin.com/CA/San-Jose/3223-Fieldgate-Ct-95148/home/603136</t>
         </is>
       </c>
       <c r="V393" t="inlineStr">
@@ -46446,7 +46438,7 @@
       </c>
       <c r="W393" t="inlineStr">
         <is>
-          <t>ML81918415</t>
+          <t>ML81916971</t>
         </is>
       </c>
       <c r="X393" t="inlineStr">
@@ -46460,21 +46452,21 @@
         </is>
       </c>
       <c r="Z393" t="n">
-        <v>37.3077446</v>
+        <v>37.3231901</v>
       </c>
       <c r="AA393" t="n">
-        <v>-122.0096293</v>
+        <v>-121.7828731</v>
       </c>
       <c r="AB393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Norfolk Dr</t>
+          <t xml:space="preserve"> Fieldgate Ct</t>
         </is>
       </c>
       <c r="AC393" t="n">
-        <v>1271102.729687093</v>
+        <v>1251533.924839719</v>
       </c>
       <c r="AD393" t="n">
-        <v>1.361022173578271</v>
+        <v>1.357534115759256</v>
       </c>
     </row>
     <row r="394">
@@ -46486,12 +46478,12 @@
       <c r="B394" t="inlineStr"/>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Mobile/Manufactured Home</t>
+          <t>Townhouse</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>200 Ford Rd #95</t>
+          <t>1059 Norfolk Dr</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -46506,17 +46498,17 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>95138</t>
+          <t>95129</t>
         </is>
       </c>
       <c r="H394" t="n">
-        <v>270500</v>
+        <v>1729999</v>
       </c>
       <c r="I394" t="n">
         <v>3</v>
       </c>
       <c r="J394" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -46524,33 +46516,41 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>1248</v>
+        <v>1532</v>
       </c>
       <c r="M394" t="n">
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="N394" t="n">
-        <v>1984</v>
+        <v>1972</v>
       </c>
       <c r="O394" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P394" t="n">
-        <v>217</v>
+        <v>1129</v>
       </c>
       <c r="Q394" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S394" t="inlineStr"/>
-      <c r="T394" t="inlineStr"/>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:30 PM</t>
+        </is>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>February-19-2023 03:30 PM</t>
+        </is>
+      </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/200-Ford-Rd-95138/unit-95/home/1299411</t>
+          <t>https://www.redfin.com/CA/San-Jose/1059-Norfolk-Dr-95129/home/1201045</t>
         </is>
       </c>
       <c r="V394" t="inlineStr">
@@ -46560,7 +46560,7 @@
       </c>
       <c r="W394" t="inlineStr">
         <is>
-          <t>ML81917483</t>
+          <t>ML81918415</t>
         </is>
       </c>
       <c r="X394" t="inlineStr">
@@ -46574,17 +46574,21 @@
         </is>
       </c>
       <c r="Z394" t="n">
-        <v>37.2531444</v>
+        <v>37.3077446</v>
       </c>
       <c r="AA394" t="n">
-        <v>-121.7933309</v>
-      </c>
-      <c r="AB394" t="inlineStr"/>
+        <v>-122.0096293</v>
+      </c>
+      <c r="AB394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Norfolk Dr</t>
+        </is>
+      </c>
       <c r="AC394" t="n">
-        <v>197701.1245220194</v>
+        <v>1271102.729687093</v>
       </c>
       <c r="AD394" t="n">
-        <v>1.368226916533661</v>
+        <v>1.361022173578271</v>
       </c>
     </row>
     <row r="395">
@@ -46596,12 +46600,12 @@
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Condo/Co-op</t>
+          <t>Mobile/Manufactured Home</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>88 E San Fernando St #1805</t>
+          <t>200 Ford Rd #95</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -46616,14 +46620,14 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>95113</t>
+          <t>95138</t>
         </is>
       </c>
       <c r="H395" t="n">
-        <v>999000</v>
+        <v>270500</v>
       </c>
       <c r="I395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J395" t="n">
         <v>2</v>
@@ -46634,22 +46638,22 @@
         </is>
       </c>
       <c r="L395" t="n">
-        <v>1100</v>
+        <v>1248</v>
       </c>
       <c r="M395" t="n">
         <v>0</v>
       </c>
       <c r="N395" t="n">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="O395" t="n">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="P395" t="n">
-        <v>908</v>
+        <v>217</v>
       </c>
       <c r="Q395" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -46660,7 +46664,7 @@
       <c r="T395" t="inlineStr"/>
       <c r="U395" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/88-E-San-Fernando-St-95113/unit-1805/home/23048686</t>
+          <t>https://www.redfin.com/CA/San-Jose/200-Ford-Rd-95138/unit-95/home/1299411</t>
         </is>
       </c>
       <c r="V395" t="inlineStr">
@@ -46670,7 +46674,7 @@
       </c>
       <c r="W395" t="inlineStr">
         <is>
-          <t>ML81908695</t>
+          <t>ML81917483</t>
         </is>
       </c>
       <c r="X395" t="inlineStr">
@@ -46684,17 +46688,17 @@
         </is>
       </c>
       <c r="Z395" t="n">
-        <v>37.3350563</v>
+        <v>37.2531444</v>
       </c>
       <c r="AA395" t="n">
-        <v>-121.8872863</v>
+        <v>-121.7933309</v>
       </c>
       <c r="AB395" t="inlineStr"/>
       <c r="AC395" t="n">
-        <v>722810.6707843286</v>
+        <v>197701.1245220194</v>
       </c>
       <c r="AD395" t="n">
-        <v>1.382104664996127</v>
+        <v>1.368226916533661</v>
       </c>
     </row>
     <row r="396">
@@ -46706,17 +46710,17 @@
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Condo/Co-op</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>241 Thomas Dr</t>
+          <t>88 E San Fernando St #1805</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Los Gatos</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -46726,59 +46730,51 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>95032</t>
+          <t>95113</t>
         </is>
       </c>
       <c r="H396" t="n">
-        <v>2595000</v>
+        <v>999000</v>
       </c>
       <c r="I396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>LOS GATOS</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="L396" t="n">
-        <v>1663</v>
+        <v>1100</v>
       </c>
       <c r="M396" t="n">
-        <v>6111</v>
+        <v>0</v>
       </c>
       <c r="N396" t="n">
-        <v>1964</v>
+        <v>2008</v>
       </c>
       <c r="O396" t="n">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="P396" t="n">
-        <v>1560</v>
+        <v>908</v>
       </c>
       <c r="Q396" t="n">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S396" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T396" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:00 PM</t>
-        </is>
-      </c>
+      <c r="S396" t="inlineStr"/>
+      <c r="T396" t="inlineStr"/>
       <c r="U396" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/Los-Gatos/241-Thomas-Dr-95032/home/890088</t>
+          <t>https://www.redfin.com/CA/San-Jose/88-E-San-Fernando-St-95113/unit-1805/home/23048686</t>
         </is>
       </c>
       <c r="V396" t="inlineStr">
@@ -46788,7 +46784,7 @@
       </c>
       <c r="W396" t="inlineStr">
         <is>
-          <t>ML81914407</t>
+          <t>ML81908695</t>
         </is>
       </c>
       <c r="X396" t="inlineStr">
@@ -46802,21 +46798,17 @@
         </is>
       </c>
       <c r="Z396" t="n">
-        <v>37.2414489</v>
+        <v>37.3350563</v>
       </c>
       <c r="AA396" t="n">
-        <v>-121.9300186</v>
-      </c>
-      <c r="AB396" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Thomas Dr</t>
-        </is>
-      </c>
+        <v>-121.8872863</v>
+      </c>
+      <c r="AB396" t="inlineStr"/>
       <c r="AC396" t="n">
-        <v>1875856.012097277</v>
+        <v>722810.6707843286</v>
       </c>
       <c r="AD396" t="n">
-        <v>1.383368437270776</v>
+        <v>1.382104664996127</v>
       </c>
     </row>
     <row r="397">
@@ -46833,12 +46825,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>3405 E Hills Dr</t>
+          <t>241 Thomas Dr</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Los Gatos</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -46848,37 +46840,37 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>95127</t>
+          <t>95032</t>
         </is>
       </c>
       <c r="H397" t="n">
-        <v>1498888</v>
+        <v>2595000</v>
       </c>
       <c r="I397" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J397" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>LOS GATOS</t>
         </is>
       </c>
       <c r="L397" t="n">
-        <v>2479</v>
+        <v>1663</v>
       </c>
       <c r="M397" t="n">
-        <v>7363</v>
+        <v>6111</v>
       </c>
       <c r="N397" t="n">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="O397" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P397" t="n">
-        <v>605</v>
+        <v>1560</v>
       </c>
       <c r="Q397" t="n">
         <v>0</v>
@@ -46888,11 +46880,19 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S397" t="inlineStr"/>
-      <c r="T397" t="inlineStr"/>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:00 PM</t>
+        </is>
+      </c>
       <c r="U397" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/3405-E-Hills-Dr-95127/home/167518648</t>
+          <t>https://www.redfin.com/CA/Los-Gatos/241-Thomas-Dr-95032/home/890088</t>
         </is>
       </c>
       <c r="V397" t="inlineStr">
@@ -46902,7 +46902,7 @@
       </c>
       <c r="W397" t="inlineStr">
         <is>
-          <t>ML81918581</t>
+          <t>ML81914407</t>
         </is>
       </c>
       <c r="X397" t="inlineStr">
@@ -46916,21 +46916,21 @@
         </is>
       </c>
       <c r="Z397" t="n">
-        <v>37.3657653</v>
+        <v>37.2414489</v>
       </c>
       <c r="AA397" t="n">
-        <v>-121.8200737</v>
+        <v>-121.9300186</v>
       </c>
       <c r="AB397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> E Hills Dr</t>
+          <t xml:space="preserve"> Thomas Dr</t>
         </is>
       </c>
       <c r="AC397" t="n">
-        <v>1080576.898672776</v>
+        <v>1875856.012097277</v>
       </c>
       <c r="AD397" t="n">
-        <v>1.387118308600727</v>
+        <v>1.383368437270776</v>
       </c>
     </row>
     <row r="398">
@@ -46942,12 +46942,12 @@
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Condo/Co-op</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>2963 Rose Ave</t>
+          <t>3405 E Hills Dr</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -46966,13 +46966,13 @@
         </is>
       </c>
       <c r="H398" t="n">
-        <v>649000</v>
+        <v>1498888</v>
       </c>
       <c r="I398" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J398" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -46980,22 +46980,22 @@
         </is>
       </c>
       <c r="L398" t="n">
-        <v>1092</v>
+        <v>2479</v>
       </c>
       <c r="M398" t="n">
-        <v>4417</v>
+        <v>7363</v>
       </c>
       <c r="N398" t="n">
-        <v>1979</v>
+        <v>2018</v>
       </c>
       <c r="O398" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P398" t="n">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="Q398" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
       <c r="T398" t="inlineStr"/>
       <c r="U398" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/2963-Rose-Ave-95127/home/889124</t>
+          <t>https://www.redfin.com/CA/San-Jose/3405-E-Hills-Dr-95127/home/167518648</t>
         </is>
       </c>
       <c r="V398" t="inlineStr">
@@ -47016,7 +47016,7 @@
       </c>
       <c r="W398" t="inlineStr">
         <is>
-          <t>ML81917924</t>
+          <t>ML81918581</t>
         </is>
       </c>
       <c r="X398" t="inlineStr">
@@ -47030,21 +47030,21 @@
         </is>
       </c>
       <c r="Z398" t="n">
-        <v>37.363324</v>
+        <v>37.3657653</v>
       </c>
       <c r="AA398" t="n">
-        <v>-121.830924</v>
+        <v>-121.8200737</v>
       </c>
       <c r="AB398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rose Ave</t>
+          <t xml:space="preserve"> E Hills Dr</t>
         </is>
       </c>
       <c r="AC398" t="n">
-        <v>467041.0067772844</v>
+        <v>1080576.898672776</v>
       </c>
       <c r="AD398" t="n">
-        <v>1.389599608133522</v>
+        <v>1.387118308600727</v>
       </c>
     </row>
     <row r="399">
@@ -47056,12 +47056,12 @@
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Mobile/Manufactured Home</t>
+          <t>Condo/Co-op</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>621 Shadow Creek Dr #621</t>
+          <t>2963 Rose Ave</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -47076,17 +47076,17 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>95136</t>
+          <t>95127</t>
         </is>
       </c>
       <c r="H399" t="n">
-        <v>349000</v>
+        <v>649000</v>
       </c>
       <c r="I399" t="n">
         <v>2</v>
       </c>
       <c r="J399" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -47094,22 +47094,22 @@
         </is>
       </c>
       <c r="L399" t="n">
-        <v>1440</v>
+        <v>1092</v>
       </c>
       <c r="M399" t="n">
-        <v>0</v>
+        <v>4417</v>
       </c>
       <c r="N399" t="n">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="O399" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P399" t="n">
-        <v>242</v>
+        <v>594</v>
       </c>
       <c r="Q399" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
       <c r="T399" t="inlineStr"/>
       <c r="U399" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/621-Shadow-Creek-Dr-95136/unit-621/home/184218891</t>
+          <t>https://www.redfin.com/CA/San-Jose/2963-Rose-Ave-95127/home/889124</t>
         </is>
       </c>
       <c r="V399" t="inlineStr">
@@ -47130,7 +47130,7 @@
       </c>
       <c r="W399" t="inlineStr">
         <is>
-          <t>ML81918600</t>
+          <t>ML81917924</t>
         </is>
       </c>
       <c r="X399" t="inlineStr">
@@ -47144,17 +47144,21 @@
         </is>
       </c>
       <c r="Z399" t="n">
-        <v>37.2789596</v>
+        <v>37.363324</v>
       </c>
       <c r="AA399" t="n">
-        <v>-121.8613278</v>
-      </c>
-      <c r="AB399" t="inlineStr"/>
+        <v>-121.830924</v>
+      </c>
+      <c r="AB399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rose Ave</t>
+        </is>
+      </c>
       <c r="AC399" t="n">
-        <v>250743.7817650275</v>
+        <v>467041.0067772844</v>
       </c>
       <c r="AD399" t="n">
-        <v>1.391859042498803</v>
+        <v>1.389599608133522</v>
       </c>
     </row>
     <row r="400">
@@ -47166,17 +47170,17 @@
       <c r="B400" t="inlineStr"/>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Multi-Family (2-4 Unit)</t>
+          <t>Mobile/Manufactured Home</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>324 Casa Loma Rd</t>
+          <t>621 Shadow Creek Dr #621</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Morgan Hill</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -47186,37 +47190,37 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>95037</t>
+          <t>95136</t>
         </is>
       </c>
       <c r="H400" t="n">
-        <v>4900000</v>
+        <v>349000</v>
       </c>
       <c r="I400" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J400" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>MORGAN HILL</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="L400" t="n">
-        <v>2800</v>
+        <v>1440</v>
       </c>
       <c r="M400" t="n">
-        <v>5749920</v>
+        <v>0</v>
       </c>
       <c r="N400" t="n">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="O400" t="n">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="P400" t="n">
-        <v>1750</v>
+        <v>242</v>
       </c>
       <c r="Q400" t="n">
         <v>0</v>
@@ -47230,7 +47234,7 @@
       <c r="T400" t="inlineStr"/>
       <c r="U400" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/Morgan-Hill/324-Casa-Loma-Rd-95037/home/182248153</t>
+          <t>https://www.redfin.com/CA/San-Jose/621-Shadow-Creek-Dr-95136/unit-621/home/184218891</t>
         </is>
       </c>
       <c r="V400" t="inlineStr">
@@ -47240,7 +47244,7 @@
       </c>
       <c r="W400" t="inlineStr">
         <is>
-          <t>ML81910016</t>
+          <t>ML81918600</t>
         </is>
       </c>
       <c r="X400" t="inlineStr">
@@ -47254,21 +47258,17 @@
         </is>
       </c>
       <c r="Z400" t="n">
-        <v>37.1510965</v>
+        <v>37.2789596</v>
       </c>
       <c r="AA400" t="n">
-        <v>-121.7595052</v>
-      </c>
-      <c r="AB400" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Casa Loma Rd</t>
-        </is>
-      </c>
+        <v>-121.8613278</v>
+      </c>
+      <c r="AB400" t="inlineStr"/>
       <c r="AC400" t="n">
-        <v>3486918.502257006</v>
+        <v>250743.7817650275</v>
       </c>
       <c r="AD400" t="n">
-        <v>1.405252229677389</v>
+        <v>1.391859042498803</v>
       </c>
     </row>
     <row r="401">
@@ -47280,17 +47280,17 @@
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Mobile/Manufactured Home</t>
+          <t>Multi-Family (2-4 Unit)</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>3637 Snell Ave #116</t>
+          <t>324 Casa Loma Rd</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Morgan Hill</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -47300,37 +47300,37 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>95136</t>
+          <t>95037</t>
         </is>
       </c>
       <c r="H401" t="n">
-        <v>349000</v>
+        <v>4900000</v>
       </c>
       <c r="I401" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J401" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>MORGAN HILL</t>
         </is>
       </c>
       <c r="L401" t="n">
-        <v>1440</v>
+        <v>2800</v>
       </c>
       <c r="M401" t="n">
-        <v>0</v>
+        <v>5749920</v>
       </c>
       <c r="N401" t="n">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="O401" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P401" t="n">
-        <v>242</v>
+        <v>1750</v>
       </c>
       <c r="Q401" t="n">
         <v>0</v>
@@ -47344,7 +47344,7 @@
       <c r="T401" t="inlineStr"/>
       <c r="U401" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/3637-Snell-Ave-95136/unit-116/home/182128880</t>
+          <t>https://www.redfin.com/CA/Morgan-Hill/324-Casa-Loma-Rd-95037/home/182248153</t>
         </is>
       </c>
       <c r="V401" t="inlineStr">
@@ -47354,7 +47354,7 @@
       </c>
       <c r="W401" t="inlineStr">
         <is>
-          <t>ML81909453</t>
+          <t>ML81910016</t>
         </is>
       </c>
       <c r="X401" t="inlineStr">
@@ -47368,17 +47368,21 @@
         </is>
       </c>
       <c r="Z401" t="n">
-        <v>37.277587</v>
+        <v>37.1510965</v>
       </c>
       <c r="AA401" t="n">
-        <v>-121.8496955</v>
-      </c>
-      <c r="AB401" t="inlineStr"/>
+        <v>-121.7595052</v>
+      </c>
+      <c r="AB401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Casa Loma Rd</t>
+        </is>
+      </c>
       <c r="AC401" t="n">
-        <v>248211.8616351741</v>
+        <v>3486918.502257006</v>
       </c>
       <c r="AD401" t="n">
-        <v>1.406056897123498</v>
+        <v>1.405252229677389</v>
       </c>
     </row>
     <row r="402">
@@ -47390,12 +47394,12 @@
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Mobile/Manufactured Home</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>58 Saron Ave</t>
+          <t>3637 Snell Ave #116</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -47410,17 +47414,17 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95136</t>
         </is>
       </c>
       <c r="H402" t="n">
-        <v>888000</v>
+        <v>349000</v>
       </c>
       <c r="I402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -47428,19 +47432,19 @@
         </is>
       </c>
       <c r="L402" t="n">
-        <v>946</v>
+        <v>1440</v>
       </c>
       <c r="M402" t="n">
-        <v>6699</v>
+        <v>0</v>
       </c>
       <c r="N402" t="n">
-        <v>1940</v>
+        <v>1971</v>
       </c>
       <c r="O402" t="n">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="P402" t="n">
-        <v>939</v>
+        <v>242</v>
       </c>
       <c r="Q402" t="n">
         <v>0</v>
@@ -47450,19 +47454,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S402" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T402" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:00 PM</t>
-        </is>
-      </c>
+      <c r="S402" t="inlineStr"/>
+      <c r="T402" t="inlineStr"/>
       <c r="U402" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/58-Saron-Ave-95116/home/1153191</t>
+          <t>https://www.redfin.com/CA/San-Jose/3637-Snell-Ave-95136/unit-116/home/182128880</t>
         </is>
       </c>
       <c r="V402" t="inlineStr">
@@ -47472,7 +47468,7 @@
       </c>
       <c r="W402" t="inlineStr">
         <is>
-          <t>ML81919094</t>
+          <t>ML81909453</t>
         </is>
       </c>
       <c r="X402" t="inlineStr">
@@ -47486,21 +47482,17 @@
         </is>
       </c>
       <c r="Z402" t="n">
-        <v>37.3551754</v>
+        <v>37.277587</v>
       </c>
       <c r="AA402" t="n">
-        <v>-121.8462757</v>
-      </c>
-      <c r="AB402" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Saron Ave</t>
-        </is>
-      </c>
+        <v>-121.8496955</v>
+      </c>
+      <c r="AB402" t="inlineStr"/>
       <c r="AC402" t="n">
-        <v>629950.7452401533</v>
+        <v>248211.8616351741</v>
       </c>
       <c r="AD402" t="n">
-        <v>1.409634017753994</v>
+        <v>1.406056897123498</v>
       </c>
     </row>
     <row r="403">
@@ -47517,7 +47509,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>1353 Karl St</t>
+          <t>58 Saron Ave</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -47532,37 +47524,37 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>95122</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H403" t="n">
-        <v>1159999</v>
+        <v>888000</v>
       </c>
       <c r="I403" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J403" t="n">
+        <v>1</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>SAN JOSE</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>946</v>
+      </c>
+      <c r="M403" t="n">
+        <v>6699</v>
+      </c>
+      <c r="N403" t="n">
+        <v>1940</v>
+      </c>
+      <c r="O403" t="n">
         <v>2</v>
       </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>699 - Not Defined</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1711</v>
-      </c>
-      <c r="M403" t="n">
-        <v>5916</v>
-      </c>
-      <c r="N403" t="n">
-        <v>1961</v>
-      </c>
-      <c r="O403" t="n">
-        <v>142</v>
-      </c>
       <c r="P403" t="n">
-        <v>678</v>
+        <v>939</v>
       </c>
       <c r="Q403" t="n">
         <v>0</v>
@@ -47572,21 +47564,29 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S403" t="inlineStr"/>
-      <c r="T403" t="inlineStr"/>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:00 PM</t>
+        </is>
+      </c>
       <c r="U403" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1353-Karl-St-95122/home/1743277</t>
+          <t>https://www.redfin.com/CA/San-Jose/58-Saron-Ave-95116/home/1153191</t>
         </is>
       </c>
       <c r="V403" t="inlineStr">
         <is>
-          <t>CRMLS</t>
+          <t>MLSListings</t>
         </is>
       </c>
       <c r="W403" t="inlineStr">
         <is>
-          <t>OC22210908</t>
+          <t>ML81919094</t>
         </is>
       </c>
       <c r="X403" t="inlineStr">
@@ -47600,21 +47600,21 @@
         </is>
       </c>
       <c r="Z403" t="n">
-        <v>37.3421603</v>
+        <v>37.3551754</v>
       </c>
       <c r="AA403" t="n">
-        <v>-121.8319298</v>
+        <v>-121.8462757</v>
       </c>
       <c r="AB403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Karl St</t>
+          <t xml:space="preserve"> Saron Ave</t>
         </is>
       </c>
       <c r="AC403" t="n">
-        <v>821699.5204389971</v>
+        <v>629950.7452401533</v>
       </c>
       <c r="AD403" t="n">
-        <v>1.411707042715888</v>
+        <v>1.409634017753994</v>
       </c>
     </row>
     <row r="404">
@@ -47626,12 +47626,12 @@
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Townhouse</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>7192 Via Vico</t>
+          <t>1353 Karl St</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -47646,69 +47646,61 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>95129</t>
+          <t>95122</t>
         </is>
       </c>
       <c r="H404" t="n">
-        <v>1600000</v>
+        <v>1159999</v>
       </c>
       <c r="I404" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J404" t="n">
         <v>2</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>699 - Not Defined</t>
         </is>
       </c>
       <c r="L404" t="n">
-        <v>1296</v>
+        <v>1711</v>
       </c>
       <c r="M404" t="n">
-        <v>2452</v>
+        <v>5916</v>
       </c>
       <c r="N404" t="n">
-        <v>1979</v>
+        <v>1961</v>
       </c>
       <c r="O404" t="n">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="P404" t="n">
-        <v>1235</v>
+        <v>678</v>
       </c>
       <c r="Q404" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S404" t="inlineStr">
-        <is>
-          <t>February-19-2023 02:30 PM</t>
-        </is>
-      </c>
-      <c r="T404" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:30 PM</t>
-        </is>
-      </c>
+      <c r="S404" t="inlineStr"/>
+      <c r="T404" t="inlineStr"/>
       <c r="U404" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/7192-Via-Vico-95129/home/1776682</t>
+          <t>https://www.redfin.com/CA/San-Jose/1353-Karl-St-95122/home/1743277</t>
         </is>
       </c>
       <c r="V404" t="inlineStr">
         <is>
-          <t>MLSListings</t>
+          <t>CRMLS</t>
         </is>
       </c>
       <c r="W404" t="inlineStr">
         <is>
-          <t>ML81918013</t>
+          <t>OC22210908</t>
         </is>
       </c>
       <c r="X404" t="inlineStr">
@@ -47722,21 +47714,21 @@
         </is>
       </c>
       <c r="Z404" t="n">
-        <v>37.3056405</v>
+        <v>37.3421603</v>
       </c>
       <c r="AA404" t="n">
-        <v>-122.0311782</v>
+        <v>-121.8319298</v>
       </c>
       <c r="AB404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Via Vico</t>
+          <t xml:space="preserve"> Karl St</t>
         </is>
       </c>
       <c r="AC404" t="n">
-        <v>1131470.752438308</v>
+        <v>821699.5204389971</v>
       </c>
       <c r="AD404" t="n">
-        <v>1.41408869522435</v>
+        <v>1.411707042715888</v>
       </c>
     </row>
     <row r="405">
@@ -47748,12 +47740,12 @@
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Townhouse</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>1397 Vine St</t>
+          <t>7192 Via Vico</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -47768,14 +47760,14 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>95110</t>
+          <t>95129</t>
         </is>
       </c>
       <c r="H405" t="n">
-        <v>949000</v>
+        <v>1600000</v>
       </c>
       <c r="I405" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J405" t="n">
         <v>2</v>
@@ -47786,33 +47778,41 @@
         </is>
       </c>
       <c r="L405" t="n">
-        <v>941</v>
+        <v>1296</v>
       </c>
       <c r="M405" t="n">
-        <v>5480</v>
+        <v>2452</v>
       </c>
       <c r="N405" t="n">
-        <v>1905</v>
+        <v>1979</v>
       </c>
       <c r="O405" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="P405" t="n">
-        <v>1009</v>
+        <v>1235</v>
       </c>
       <c r="Q405" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S405" t="inlineStr"/>
-      <c r="T405" t="inlineStr"/>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>February-19-2023 02:30 PM</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:30 PM</t>
+        </is>
+      </c>
       <c r="U405" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1397-Vine-St-95110/home/1505147</t>
+          <t>https://www.redfin.com/CA/San-Jose/7192-Via-Vico-95129/home/1776682</t>
         </is>
       </c>
       <c r="V405" t="inlineStr">
@@ -47822,7 +47822,7 @@
       </c>
       <c r="W405" t="inlineStr">
         <is>
-          <t>ML81915965</t>
+          <t>ML81918013</t>
         </is>
       </c>
       <c r="X405" t="inlineStr">
@@ -47836,21 +47836,21 @@
         </is>
       </c>
       <c r="Z405" t="n">
-        <v>37.3129386</v>
+        <v>37.3056405</v>
       </c>
       <c r="AA405" t="n">
-        <v>-121.879453</v>
+        <v>-122.0311782</v>
       </c>
       <c r="AB405" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vine St</t>
+          <t xml:space="preserve"> Via Vico</t>
         </is>
       </c>
       <c r="AC405" t="n">
-        <v>667503.6508143512</v>
+        <v>1131470.752438308</v>
       </c>
       <c r="AD405" t="n">
-        <v>1.421715070535157</v>
+        <v>1.41408869522435</v>
       </c>
     </row>
     <row r="406">
@@ -47867,7 +47867,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>5593 Snowdon Pl</t>
+          <t>1397 Vine St</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -47882,17 +47882,17 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>95138</t>
+          <t>95110</t>
         </is>
       </c>
       <c r="H406" t="n">
-        <v>7495000</v>
+        <v>949000</v>
       </c>
       <c r="I406" t="n">
         <v>5</v>
       </c>
       <c r="J406" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -47900,22 +47900,22 @@
         </is>
       </c>
       <c r="L406" t="n">
-        <v>8703</v>
+        <v>941</v>
       </c>
       <c r="M406" t="n">
-        <v>30928</v>
+        <v>5480</v>
       </c>
       <c r="N406" t="n">
-        <v>2004</v>
+        <v>1905</v>
       </c>
       <c r="O406" t="n">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="P406" t="n">
-        <v>861</v>
+        <v>1009</v>
       </c>
       <c r="Q406" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -47926,7 +47926,7 @@
       <c r="T406" t="inlineStr"/>
       <c r="U406" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/5593-Snowdon-Pl-95138/home/1299466</t>
+          <t>https://www.redfin.com/CA/San-Jose/1397-Vine-St-95110/home/1505147</t>
         </is>
       </c>
       <c r="V406" t="inlineStr">
@@ -47936,7 +47936,7 @@
       </c>
       <c r="W406" t="inlineStr">
         <is>
-          <t>ML81902178</t>
+          <t>ML81915965</t>
         </is>
       </c>
       <c r="X406" t="inlineStr">
@@ -47950,21 +47950,21 @@
         </is>
       </c>
       <c r="Z406" t="n">
-        <v>37.2767601</v>
+        <v>37.3129386</v>
       </c>
       <c r="AA406" t="n">
-        <v>-121.7566117</v>
+        <v>-121.879453</v>
       </c>
       <c r="AB406" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Snowdon Pl</t>
+          <t xml:space="preserve"> Vine St</t>
         </is>
       </c>
       <c r="AC406" t="n">
-        <v>5263803.604868818</v>
+        <v>667503.6508143512</v>
       </c>
       <c r="AD406" t="n">
-        <v>1.423875311964035</v>
+        <v>1.421715070535157</v>
       </c>
     </row>
     <row r="407">
@@ -47981,7 +47981,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>3342 Heritage Estates Dr</t>
+          <t>5593 Snowdon Pl</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -47996,17 +47996,17 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>95148</t>
+          <t>95138</t>
         </is>
       </c>
       <c r="H407" t="n">
-        <v>2350000</v>
+        <v>7495000</v>
       </c>
       <c r="I407" t="n">
         <v>5</v>
       </c>
       <c r="J407" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -48014,41 +48014,33 @@
         </is>
       </c>
       <c r="L407" t="n">
-        <v>2845</v>
+        <v>8703</v>
       </c>
       <c r="M407" t="n">
-        <v>6987</v>
+        <v>30928</v>
       </c>
       <c r="N407" t="n">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="O407" t="n">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="P407" t="n">
-        <v>826</v>
+        <v>861</v>
       </c>
       <c r="Q407" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="S407" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T407" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:00 PM</t>
-        </is>
-      </c>
+      <c r="S407" t="inlineStr"/>
+      <c r="T407" t="inlineStr"/>
       <c r="U407" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/3342-Heritage-Estates-Dr-95148/home/1545329</t>
+          <t>https://www.redfin.com/CA/San-Jose/5593-Snowdon-Pl-95138/home/1299466</t>
         </is>
       </c>
       <c r="V407" t="inlineStr">
@@ -48058,7 +48050,7 @@
       </c>
       <c r="W407" t="inlineStr">
         <is>
-          <t>ML81917613</t>
+          <t>ML81902178</t>
         </is>
       </c>
       <c r="X407" t="inlineStr">
@@ -48072,21 +48064,21 @@
         </is>
       </c>
       <c r="Z407" t="n">
-        <v>37.3168266</v>
+        <v>37.2767601</v>
       </c>
       <c r="AA407" t="n">
-        <v>-121.7794906</v>
+        <v>-121.7566117</v>
       </c>
       <c r="AB407" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Heritage Estates Dr</t>
+          <t xml:space="preserve"> Snowdon Pl</t>
         </is>
       </c>
       <c r="AC407" t="n">
-        <v>1646433.118806356</v>
+        <v>5263803.604868818</v>
       </c>
       <c r="AD407" t="n">
-        <v>1.427327944972172</v>
+        <v>1.423875311964035</v>
       </c>
     </row>
     <row r="408">
@@ -48103,7 +48095,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>1644 Laurelwood Dr</t>
+          <t>3342 Heritage Estates Dr</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -48118,17 +48110,17 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>95125</t>
+          <t>95148</t>
         </is>
       </c>
       <c r="H408" t="n">
-        <v>3800000</v>
+        <v>2350000</v>
       </c>
       <c r="I408" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J408" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -48136,19 +48128,19 @@
         </is>
       </c>
       <c r="L408" t="n">
-        <v>3083</v>
+        <v>2845</v>
       </c>
       <c r="M408" t="n">
-        <v>10367</v>
+        <v>6987</v>
       </c>
       <c r="N408" t="n">
-        <v>1957</v>
+        <v>1987</v>
       </c>
       <c r="O408" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P408" t="n">
-        <v>1233</v>
+        <v>826</v>
       </c>
       <c r="Q408" t="n">
         <v>0</v>
@@ -48160,7 +48152,7 @@
       </c>
       <c r="S408" t="inlineStr">
         <is>
-          <t>February-19-2023 02:00 PM</t>
+          <t>February-19-2023 01:00 PM</t>
         </is>
       </c>
       <c r="T408" t="inlineStr">
@@ -48170,7 +48162,7 @@
       </c>
       <c r="U408" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1644-Laurelwood-Dr-95125/home/985122</t>
+          <t>https://www.redfin.com/CA/San-Jose/3342-Heritage-Estates-Dr-95148/home/1545329</t>
         </is>
       </c>
       <c r="V408" t="inlineStr">
@@ -48180,7 +48172,7 @@
       </c>
       <c r="W408" t="inlineStr">
         <is>
-          <t>ML81918433</t>
+          <t>ML81917613</t>
         </is>
       </c>
       <c r="X408" t="inlineStr">
@@ -48194,21 +48186,21 @@
         </is>
       </c>
       <c r="Z408" t="n">
-        <v>37.2842493</v>
+        <v>37.3168266</v>
       </c>
       <c r="AA408" t="n">
-        <v>-121.9067328</v>
+        <v>-121.7794906</v>
       </c>
       <c r="AB408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Laurelwood Dr</t>
+          <t xml:space="preserve"> Heritage Estates Dr</t>
         </is>
       </c>
       <c r="AC408" t="n">
-        <v>2658405.668886011</v>
+        <v>1646433.118806356</v>
       </c>
       <c r="AD408" t="n">
-        <v>1.429428188660299</v>
+        <v>1.427327944972172</v>
       </c>
     </row>
     <row r="409">
@@ -48225,7 +48217,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>2069 Cully Pl</t>
+          <t>1644 Laurelwood Dr</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -48240,17 +48232,17 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>95124</t>
+          <t>95125</t>
         </is>
       </c>
       <c r="H409" t="n">
-        <v>3100000</v>
+        <v>3800000</v>
       </c>
       <c r="I409" t="n">
         <v>4</v>
       </c>
       <c r="J409" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -48258,22 +48250,22 @@
         </is>
       </c>
       <c r="L409" t="n">
-        <v>2810</v>
+        <v>3083</v>
       </c>
       <c r="M409" t="n">
-        <v>4478</v>
+        <v>10367</v>
       </c>
       <c r="N409" t="n">
-        <v>2023</v>
+        <v>1957</v>
       </c>
       <c r="O409" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P409" t="n">
-        <v>1103</v>
+        <v>1233</v>
       </c>
       <c r="Q409" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -48282,7 +48274,7 @@
       </c>
       <c r="S409" t="inlineStr">
         <is>
-          <t>February-19-2023 11:00 AM</t>
+          <t>February-19-2023 02:00 PM</t>
         </is>
       </c>
       <c r="T409" t="inlineStr">
@@ -48292,7 +48284,7 @@
       </c>
       <c r="U409" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/2069-Cully-Pl-95124/home/181207648</t>
+          <t>https://www.redfin.com/CA/San-Jose/1644-Laurelwood-Dr-95125/home/985122</t>
         </is>
       </c>
       <c r="V409" t="inlineStr">
@@ -48302,7 +48294,7 @@
       </c>
       <c r="W409" t="inlineStr">
         <is>
-          <t>ML81916579</t>
+          <t>ML81918433</t>
         </is>
       </c>
       <c r="X409" t="inlineStr">
@@ -48316,21 +48308,21 @@
         </is>
       </c>
       <c r="Z409" t="n">
-        <v>37.2651336</v>
+        <v>37.2842493</v>
       </c>
       <c r="AA409" t="n">
-        <v>-121.9347042</v>
+        <v>-121.9067328</v>
       </c>
       <c r="AB409" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cully Pl</t>
+          <t xml:space="preserve"> Laurelwood Dr</t>
         </is>
       </c>
       <c r="AC409" t="n">
-        <v>2154291.265828985</v>
+        <v>2658405.668886011</v>
       </c>
       <c r="AD409" t="n">
-        <v>1.438988334201457</v>
+        <v>1.429428188660299</v>
       </c>
     </row>
     <row r="410">
@@ -48347,7 +48339,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>6811 Castlerock Dr</t>
+          <t>2069 Cully Pl</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -48362,17 +48354,17 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>95120</t>
+          <t>95124</t>
         </is>
       </c>
       <c r="H410" t="n">
-        <v>2999000</v>
+        <v>3100000</v>
       </c>
       <c r="I410" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J410" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -48380,22 +48372,22 @@
         </is>
       </c>
       <c r="L410" t="n">
-        <v>3572</v>
+        <v>2810</v>
       </c>
       <c r="M410" t="n">
-        <v>12720</v>
+        <v>4478</v>
       </c>
       <c r="N410" t="n">
-        <v>1964</v>
+        <v>2023</v>
       </c>
       <c r="O410" t="n">
         <v>23</v>
       </c>
       <c r="P410" t="n">
-        <v>840</v>
+        <v>1103</v>
       </c>
       <c r="Q410" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -48404,7 +48396,7 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>February-19-2023 01:00 PM</t>
+          <t>February-19-2023 11:00 AM</t>
         </is>
       </c>
       <c r="T410" t="inlineStr">
@@ -48414,7 +48406,7 @@
       </c>
       <c r="U410" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/6811-Castlerock-Dr-95120/home/1285806</t>
+          <t>https://www.redfin.com/CA/San-Jose/2069-Cully-Pl-95124/home/181207648</t>
         </is>
       </c>
       <c r="V410" t="inlineStr">
@@ -48424,7 +48416,7 @@
       </c>
       <c r="W410" t="inlineStr">
         <is>
-          <t>ML81917176</t>
+          <t>ML81916579</t>
         </is>
       </c>
       <c r="X410" t="inlineStr">
@@ -48438,21 +48430,21 @@
         </is>
       </c>
       <c r="Z410" t="n">
-        <v>37.2092925</v>
+        <v>37.2651336</v>
       </c>
       <c r="AA410" t="n">
-        <v>-121.8633103</v>
+        <v>-121.9347042</v>
       </c>
       <c r="AB410" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Castlerock Dr</t>
+          <t xml:space="preserve"> Cully Pl</t>
         </is>
       </c>
       <c r="AC410" t="n">
-        <v>2075708.621979822</v>
+        <v>2154291.265828985</v>
       </c>
       <c r="AD410" t="n">
-        <v>1.444807796356089</v>
+        <v>1.438988334201457</v>
       </c>
     </row>
     <row r="411">
@@ -48469,7 +48461,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>961 Thornton Way</t>
+          <t>6811 Castlerock Dr</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -48484,37 +48476,37 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>95128</t>
+          <t>95120</t>
         </is>
       </c>
       <c r="H411" t="n">
-        <v>1948000</v>
+        <v>2999000</v>
       </c>
       <c r="I411" t="n">
+        <v>6</v>
+      </c>
+      <c r="J411" t="n">
         <v>3</v>
       </c>
-      <c r="J411" t="n">
-        <v>1.5</v>
-      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>SAN JOSE</t>
         </is>
       </c>
       <c r="L411" t="n">
-        <v>1725</v>
+        <v>3572</v>
       </c>
       <c r="M411" t="n">
-        <v>13186</v>
+        <v>12720</v>
       </c>
       <c r="N411" t="n">
-        <v>1948</v>
+        <v>1964</v>
       </c>
       <c r="O411" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P411" t="n">
-        <v>1129</v>
+        <v>840</v>
       </c>
       <c r="Q411" t="n">
         <v>0</v>
@@ -48524,11 +48516,19 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S411" t="inlineStr"/>
-      <c r="T411" t="inlineStr"/>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:00 PM</t>
+        </is>
+      </c>
       <c r="U411" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/961-Thornton-Way-95128/home/1738340</t>
+          <t>https://www.redfin.com/CA/San-Jose/6811-Castlerock-Dr-95120/home/1285806</t>
         </is>
       </c>
       <c r="V411" t="inlineStr">
@@ -48538,7 +48538,7 @@
       </c>
       <c r="W411" t="inlineStr">
         <is>
-          <t>ML81919004</t>
+          <t>ML81917176</t>
         </is>
       </c>
       <c r="X411" t="inlineStr">
@@ -48552,21 +48552,21 @@
         </is>
       </c>
       <c r="Z411" t="n">
-        <v>37.3089344</v>
+        <v>37.2092925</v>
       </c>
       <c r="AA411" t="n">
-        <v>-121.9393783</v>
+        <v>-121.8633103</v>
       </c>
       <c r="AB411" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thornton Way</t>
+          <t xml:space="preserve"> Castlerock Dr</t>
         </is>
       </c>
       <c r="AC411" t="n">
-        <v>1347565.833751973</v>
+        <v>2075708.621979822</v>
       </c>
       <c r="AD411" t="n">
-        <v>1.445569449157272</v>
+        <v>1.444807796356089</v>
       </c>
     </row>
     <row r="412">
@@ -48583,7 +48583,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>1033 Thornton Way</t>
+          <t>961 Thornton Way</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -48602,13 +48602,13 @@
         </is>
       </c>
       <c r="H412" t="n">
-        <v>1349000</v>
+        <v>1948000</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
       </c>
       <c r="J412" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -48616,19 +48616,19 @@
         </is>
       </c>
       <c r="L412" t="n">
-        <v>972</v>
+        <v>1725</v>
       </c>
       <c r="M412" t="n">
-        <v>7423</v>
+        <v>13186</v>
       </c>
       <c r="N412" t="n">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="O412" t="n">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="P412" t="n">
-        <v>1388</v>
+        <v>1129</v>
       </c>
       <c r="Q412" t="n">
         <v>0</v>
@@ -48638,19 +48638,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S412" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T412" t="inlineStr">
-        <is>
-          <t>February-19-2023 03:00 PM</t>
-        </is>
-      </c>
+      <c r="S412" t="inlineStr"/>
+      <c r="T412" t="inlineStr"/>
       <c r="U412" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1033-Thornton-Way-95128/home/1260975</t>
+          <t>https://www.redfin.com/CA/San-Jose/961-Thornton-Way-95128/home/1738340</t>
         </is>
       </c>
       <c r="V412" t="inlineStr">
@@ -48660,7 +48652,7 @@
       </c>
       <c r="W412" t="inlineStr">
         <is>
-          <t>ML81902451</t>
+          <t>ML81919004</t>
         </is>
       </c>
       <c r="X412" t="inlineStr">
@@ -48674,10 +48666,10 @@
         </is>
       </c>
       <c r="Z412" t="n">
-        <v>37.3075947</v>
+        <v>37.3089344</v>
       </c>
       <c r="AA412" t="n">
-        <v>-121.9393338</v>
+        <v>-121.9393783</v>
       </c>
       <c r="AB412" t="inlineStr">
         <is>
@@ -48685,10 +48677,10 @@
         </is>
       </c>
       <c r="AC412" t="n">
-        <v>923749.070591524</v>
+        <v>1347565.833751973</v>
       </c>
       <c r="AD412" t="n">
-        <v>1.460353296091725</v>
+        <v>1.445569449157272</v>
       </c>
     </row>
     <row r="413">
@@ -48705,7 +48697,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>1882 Johnston Ave</t>
+          <t>1033 Thornton Way</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -48720,17 +48712,17 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>95125</t>
+          <t>95128</t>
         </is>
       </c>
       <c r="H413" t="n">
-        <v>3395000</v>
+        <v>1349000</v>
       </c>
       <c r="I413" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J413" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -48738,19 +48730,19 @@
         </is>
       </c>
       <c r="L413" t="n">
-        <v>2931</v>
+        <v>972</v>
       </c>
       <c r="M413" t="n">
-        <v>6520</v>
+        <v>7423</v>
       </c>
       <c r="N413" t="n">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="O413" t="n">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="P413" t="n">
-        <v>1158</v>
+        <v>1388</v>
       </c>
       <c r="Q413" t="n">
         <v>0</v>
@@ -48762,17 +48754,17 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>February-19-2023 01:30 PM</t>
+          <t>February-19-2023 01:00 PM</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>February-19-2023 04:00 PM</t>
+          <t>February-19-2023 03:00 PM</t>
         </is>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1882-Johnston-Ave-95125/home/974237</t>
+          <t>https://www.redfin.com/CA/San-Jose/1033-Thornton-Way-95128/home/1260975</t>
         </is>
       </c>
       <c r="V413" t="inlineStr">
@@ -48782,7 +48774,7 @@
       </c>
       <c r="W413" t="inlineStr">
         <is>
-          <t>ML81918842</t>
+          <t>ML81902451</t>
         </is>
       </c>
       <c r="X413" t="inlineStr">
@@ -48796,21 +48788,21 @@
         </is>
       </c>
       <c r="Z413" t="n">
-        <v>37.2994804</v>
+        <v>37.3075947</v>
       </c>
       <c r="AA413" t="n">
-        <v>-121.8848334</v>
+        <v>-121.9393338</v>
       </c>
       <c r="AB413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johnston Ave</t>
+          <t xml:space="preserve"> Thornton Way</t>
         </is>
       </c>
       <c r="AC413" t="n">
-        <v>2310546.30279176</v>
+        <v>923749.070591524</v>
       </c>
       <c r="AD413" t="n">
-        <v>1.469349476311264</v>
+        <v>1.460353296091725</v>
       </c>
     </row>
     <row r="414">
@@ -48827,7 +48819,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>1475 Mckendrie St</t>
+          <t>1882 Johnston Ave</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -48842,14 +48834,14 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>95126</t>
+          <t>95125</t>
         </is>
       </c>
       <c r="H414" t="n">
-        <v>3000000</v>
+        <v>3395000</v>
       </c>
       <c r="I414" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J414" t="n">
         <v>4</v>
@@ -48860,19 +48852,19 @@
         </is>
       </c>
       <c r="L414" t="n">
-        <v>3305</v>
+        <v>2931</v>
       </c>
       <c r="M414" t="n">
-        <v>10376</v>
+        <v>6520</v>
       </c>
       <c r="N414" t="n">
-        <v>1925</v>
+        <v>1950</v>
       </c>
       <c r="O414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P414" t="n">
-        <v>908</v>
+        <v>1158</v>
       </c>
       <c r="Q414" t="n">
         <v>0</v>
@@ -48884,7 +48876,7 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t>February-19-2023 02:00 PM</t>
+          <t>February-19-2023 01:30 PM</t>
         </is>
       </c>
       <c r="T414" t="inlineStr">
@@ -48894,7 +48886,7 @@
       </c>
       <c r="U414" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1475-McKendrie-St-95126/home/1719627</t>
+          <t>https://www.redfin.com/CA/San-Jose/1882-Johnston-Ave-95125/home/974237</t>
         </is>
       </c>
       <c r="V414" t="inlineStr">
@@ -48904,7 +48896,7 @@
       </c>
       <c r="W414" t="inlineStr">
         <is>
-          <t>ML81918938</t>
+          <t>ML81918842</t>
         </is>
       </c>
       <c r="X414" t="inlineStr">
@@ -48918,21 +48910,21 @@
         </is>
       </c>
       <c r="Z414" t="n">
-        <v>37.337351</v>
+        <v>37.2994804</v>
       </c>
       <c r="AA414" t="n">
-        <v>-121.930356</v>
+        <v>-121.8848334</v>
       </c>
       <c r="AB414" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mckendrie St</t>
+          <t xml:space="preserve"> Johnston Ave</t>
         </is>
       </c>
       <c r="AC414" t="n">
-        <v>2039122.431847629</v>
+        <v>2310546.30279176</v>
       </c>
       <c r="AD414" t="n">
-        <v>1.471221125884888</v>
+        <v>1.469349476311264</v>
       </c>
     </row>
     <row r="415">
@@ -48949,7 +48941,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>3329 Belgrove Cir</t>
+          <t>1475 Mckendrie St</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -48964,37 +48956,37 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>95148</t>
+          <t>95126</t>
         </is>
       </c>
       <c r="H415" t="n">
-        <v>1985000</v>
+        <v>3000000</v>
       </c>
       <c r="I415" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J415" t="n">
+        <v>4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>SAN JOSE</t>
+        </is>
+      </c>
+      <c r="L415" t="n">
+        <v>3305</v>
+      </c>
+      <c r="M415" t="n">
+        <v>10376</v>
+      </c>
+      <c r="N415" t="n">
+        <v>1925</v>
+      </c>
+      <c r="O415" t="n">
         <v>3</v>
       </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>SAN JOSE</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>2635</v>
-      </c>
-      <c r="M415" t="n">
-        <v>9143</v>
-      </c>
-      <c r="N415" t="n">
-        <v>1981</v>
-      </c>
-      <c r="O415" t="n">
-        <v>18</v>
-      </c>
       <c r="P415" t="n">
-        <v>753</v>
+        <v>908</v>
       </c>
       <c r="Q415" t="n">
         <v>0</v>
@@ -49006,7 +48998,7 @@
       </c>
       <c r="S415" t="inlineStr">
         <is>
-          <t>February-19-2023 01:00 PM</t>
+          <t>February-19-2023 02:00 PM</t>
         </is>
       </c>
       <c r="T415" t="inlineStr">
@@ -49016,7 +49008,7 @@
       </c>
       <c r="U415" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/3329-Belgrove-Cir-95148/home/956837</t>
+          <t>https://www.redfin.com/CA/San-Jose/1475-McKendrie-St-95126/home/1719627</t>
         </is>
       </c>
       <c r="V415" t="inlineStr">
@@ -49026,7 +49018,7 @@
       </c>
       <c r="W415" t="inlineStr">
         <is>
-          <t>ML81917605</t>
+          <t>ML81918938</t>
         </is>
       </c>
       <c r="X415" t="inlineStr">
@@ -49040,21 +49032,21 @@
         </is>
       </c>
       <c r="Z415" t="n">
-        <v>37.3260342</v>
+        <v>37.337351</v>
       </c>
       <c r="AA415" t="n">
-        <v>-121.7726586</v>
+        <v>-121.930356</v>
       </c>
       <c r="AB415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Belgrove Cir</t>
+          <t xml:space="preserve"> Mckendrie St</t>
         </is>
       </c>
       <c r="AC415" t="n">
-        <v>1319870.464416453</v>
+        <v>2039122.431847629</v>
       </c>
       <c r="AD415" t="n">
-        <v>1.503935464513646</v>
+        <v>1.471221125884888</v>
       </c>
     </row>
     <row r="416">
@@ -49071,7 +49063,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>1366 Hillcrest Ct</t>
+          <t>3329 Belgrove Cir</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -49086,17 +49078,17 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>95120</t>
+          <t>95148</t>
         </is>
       </c>
       <c r="H416" t="n">
-        <v>2998000</v>
+        <v>1985000</v>
       </c>
       <c r="I416" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J416" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -49104,19 +49096,19 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>2617</v>
+        <v>2635</v>
       </c>
       <c r="M416" t="n">
-        <v>14708</v>
+        <v>9143</v>
       </c>
       <c r="N416" t="n">
-        <v>1969</v>
+        <v>1981</v>
       </c>
       <c r="O416" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P416" t="n">
-        <v>1146</v>
+        <v>753</v>
       </c>
       <c r="Q416" t="n">
         <v>0</v>
@@ -49128,17 +49120,17 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t>February-19-2023 01:30 PM</t>
+          <t>February-19-2023 01:00 PM</t>
         </is>
       </c>
       <c r="T416" t="inlineStr">
         <is>
-          <t>February-19-2023 04:30 PM</t>
+          <t>February-19-2023 04:00 PM</t>
         </is>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1366-Hillcrest-Ct-95120/home/931415</t>
+          <t>https://www.redfin.com/CA/San-Jose/3329-Belgrove-Cir-95148/home/956837</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
@@ -49148,7 +49140,7 @@
       </c>
       <c r="W416" t="inlineStr">
         <is>
-          <t>ML81917167</t>
+          <t>ML81917605</t>
         </is>
       </c>
       <c r="X416" t="inlineStr">
@@ -49162,21 +49154,21 @@
         </is>
       </c>
       <c r="Z416" t="n">
-        <v>37.2094177</v>
+        <v>37.3260342</v>
       </c>
       <c r="AA416" t="n">
-        <v>-121.8691807</v>
+        <v>-121.7726586</v>
       </c>
       <c r="AB416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hillcrest Ct</t>
+          <t xml:space="preserve"> Belgrove Cir</t>
         </is>
       </c>
       <c r="AC416" t="n">
-        <v>1993126.027292533</v>
+        <v>1319870.464416453</v>
       </c>
       <c r="AD416" t="n">
-        <v>1.504169811114499</v>
+        <v>1.503935464513646</v>
       </c>
     </row>
     <row r="417">
@@ -49193,7 +49185,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>854 Calhoun St</t>
+          <t>1366 Hillcrest Ct</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -49208,17 +49200,17 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95120</t>
         </is>
       </c>
       <c r="H417" t="n">
-        <v>999000</v>
+        <v>2998000</v>
       </c>
       <c r="I417" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J417" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -49226,19 +49218,19 @@
         </is>
       </c>
       <c r="L417" t="n">
-        <v>1448</v>
+        <v>2617</v>
       </c>
       <c r="M417" t="n">
-        <v>8700</v>
+        <v>14708</v>
       </c>
       <c r="N417" t="n">
-        <v>1890</v>
+        <v>1969</v>
       </c>
       <c r="O417" t="n">
-        <v>575</v>
+        <v>23</v>
       </c>
       <c r="P417" t="n">
-        <v>690</v>
+        <v>1146</v>
       </c>
       <c r="Q417" t="n">
         <v>0</v>
@@ -49248,11 +49240,19 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S417" t="inlineStr"/>
-      <c r="T417" t="inlineStr"/>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:30 PM</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:30 PM</t>
+        </is>
+      </c>
       <c r="U417" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/854-Calhoun-St-95116/home/873830</t>
+          <t>https://www.redfin.com/CA/San-Jose/1366-Hillcrest-Ct-95120/home/931415</t>
         </is>
       </c>
       <c r="V417" t="inlineStr">
@@ -49262,7 +49262,7 @@
       </c>
       <c r="W417" t="inlineStr">
         <is>
-          <t>ML81853771</t>
+          <t>ML81917167</t>
         </is>
       </c>
       <c r="X417" t="inlineStr">
@@ -49276,21 +49276,21 @@
         </is>
       </c>
       <c r="Z417" t="n">
-        <v>37.3433884</v>
+        <v>37.2094177</v>
       </c>
       <c r="AA417" t="n">
-        <v>-121.8725604</v>
+        <v>-121.8691807</v>
       </c>
       <c r="AB417" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Calhoun St</t>
+          <t xml:space="preserve"> Hillcrest Ct</t>
         </is>
       </c>
       <c r="AC417" t="n">
-        <v>661451.6491857936</v>
+        <v>1993126.027292533</v>
       </c>
       <c r="AD417" t="n">
-        <v>1.510314474579824</v>
+        <v>1.504169811114499</v>
       </c>
     </row>
     <row r="418">
@@ -49302,12 +49302,12 @@
       <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Multi-Family (5+ Unit)</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>620 S 3rd St</t>
+          <t>854 Calhoun St</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -49322,17 +49322,17 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>95112</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H418" t="n">
-        <v>1700000</v>
+        <v>999000</v>
       </c>
       <c r="I418" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J418" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -49340,19 +49340,19 @@
         </is>
       </c>
       <c r="L418" t="n">
-        <v>3446</v>
+        <v>1448</v>
       </c>
       <c r="M418" t="n">
-        <v>8833</v>
+        <v>8700</v>
       </c>
       <c r="N418" t="n">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="O418" t="n">
-        <v>18</v>
+        <v>575</v>
       </c>
       <c r="P418" t="n">
-        <v>493</v>
+        <v>690</v>
       </c>
       <c r="Q418" t="n">
         <v>0</v>
@@ -49366,7 +49366,7 @@
       <c r="T418" t="inlineStr"/>
       <c r="U418" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/620-S-3rd-St-95112/home/1555217</t>
+          <t>https://www.redfin.com/CA/San-Jose/854-Calhoun-St-95116/home/873830</t>
         </is>
       </c>
       <c r="V418" t="inlineStr">
@@ -49376,7 +49376,7 @@
       </c>
       <c r="W418" t="inlineStr">
         <is>
-          <t>ML81917544</t>
+          <t>ML81853771</t>
         </is>
       </c>
       <c r="X418" t="inlineStr">
@@ -49390,21 +49390,21 @@
         </is>
       </c>
       <c r="Z418" t="n">
-        <v>37.327884</v>
+        <v>37.3433884</v>
       </c>
       <c r="AA418" t="n">
-        <v>-121.8811428</v>
+        <v>-121.8725604</v>
       </c>
       <c r="AB418" t="inlineStr">
         <is>
-          <t>rd St</t>
+          <t xml:space="preserve"> Calhoun St</t>
         </is>
       </c>
       <c r="AC418" t="n">
-        <v>1120157.037715999</v>
+        <v>661451.6491857936</v>
       </c>
       <c r="AD418" t="n">
-        <v>1.517644350533476</v>
+        <v>1.510314474579824</v>
       </c>
     </row>
     <row r="419">
@@ -49416,12 +49416,12 @@
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Multi-Family (5+ Unit)</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>234 S 20th St</t>
+          <t>620 S 3rd St</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -49436,17 +49436,17 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95112</t>
         </is>
       </c>
       <c r="H419" t="n">
-        <v>1449900</v>
+        <v>1700000</v>
       </c>
       <c r="I419" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J419" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -49454,19 +49454,19 @@
         </is>
       </c>
       <c r="L419" t="n">
-        <v>2211</v>
+        <v>3446</v>
       </c>
       <c r="M419" t="n">
-        <v>7804</v>
+        <v>8833</v>
       </c>
       <c r="N419" t="n">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="O419" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P419" t="n">
-        <v>656</v>
+        <v>493</v>
       </c>
       <c r="Q419" t="n">
         <v>0</v>
@@ -49480,7 +49480,7 @@
       <c r="T419" t="inlineStr"/>
       <c r="U419" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/234-S-20th-St-95116/home/735768</t>
+          <t>https://www.redfin.com/CA/San-Jose/620-S-3rd-St-95112/home/1555217</t>
         </is>
       </c>
       <c r="V419" t="inlineStr">
@@ -49490,7 +49490,7 @@
       </c>
       <c r="W419" t="inlineStr">
         <is>
-          <t>ML81916753</t>
+          <t>ML81917544</t>
         </is>
       </c>
       <c r="X419" t="inlineStr">
@@ -49504,21 +49504,21 @@
         </is>
       </c>
       <c r="Z419" t="n">
-        <v>37.3411896</v>
+        <v>37.327884</v>
       </c>
       <c r="AA419" t="n">
-        <v>-121.8673573</v>
+        <v>-121.8811428</v>
       </c>
       <c r="AB419" t="inlineStr">
         <is>
-          <t>th St</t>
+          <t>rd St</t>
         </is>
       </c>
       <c r="AC419" t="n">
-        <v>951585.7020486882</v>
+        <v>1120157.037715999</v>
       </c>
       <c r="AD419" t="n">
-        <v>1.523667281757682</v>
+        <v>1.517644350533476</v>
       </c>
     </row>
     <row r="420">
@@ -49535,7 +49535,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>3610 Norwood Ave</t>
+          <t>234 S 20th St</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -49550,14 +49550,14 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>95148</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H420" t="n">
-        <v>1899000</v>
+        <v>1449900</v>
       </c>
       <c r="I420" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J420" t="n">
         <v>2</v>
@@ -49568,19 +49568,19 @@
         </is>
       </c>
       <c r="L420" t="n">
-        <v>1902</v>
+        <v>2211</v>
       </c>
       <c r="M420" t="n">
-        <v>8671</v>
+        <v>7804</v>
       </c>
       <c r="N420" t="n">
-        <v>1977</v>
+        <v>1900</v>
       </c>
       <c r="O420" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="P420" t="n">
-        <v>998</v>
+        <v>656</v>
       </c>
       <c r="Q420" t="n">
         <v>0</v>
@@ -49590,19 +49590,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S420" t="inlineStr">
-        <is>
-          <t>February-19-2023 10:00 AM</t>
-        </is>
-      </c>
-      <c r="T420" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr"/>
       <c r="U420" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/3610-Norwood-Ave-95148/home/1091853</t>
+          <t>https://www.redfin.com/CA/San-Jose/234-S-20th-St-95116/home/735768</t>
         </is>
       </c>
       <c r="V420" t="inlineStr">
@@ -49612,7 +49604,7 @@
       </c>
       <c r="W420" t="inlineStr">
         <is>
-          <t>ML81918053</t>
+          <t>ML81916753</t>
         </is>
       </c>
       <c r="X420" t="inlineStr">
@@ -49626,21 +49618,21 @@
         </is>
       </c>
       <c r="Z420" t="n">
-        <v>37.3328631</v>
+        <v>37.3411896</v>
       </c>
       <c r="AA420" t="n">
-        <v>-121.77593</v>
+        <v>-121.8673573</v>
       </c>
       <c r="AB420" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Norwood Ave</t>
+          <t>th St</t>
         </is>
       </c>
       <c r="AC420" t="n">
-        <v>1210206.137233728</v>
+        <v>951585.7020486882</v>
       </c>
       <c r="AD420" t="n">
-        <v>1.569154164381208</v>
+        <v>1.523667281757682</v>
       </c>
     </row>
     <row r="421">
@@ -49652,12 +49644,12 @@
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Multi-Family (2-4 Unit)</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>537 Sinclair Dr</t>
+          <t>3610 Norwood Ave</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -49672,14 +49664,14 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95148</t>
         </is>
       </c>
       <c r="H421" t="n">
-        <v>1250000</v>
+        <v>1899000</v>
       </c>
       <c r="I421" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J421" t="n">
         <v>2</v>
@@ -49690,19 +49682,19 @@
         </is>
       </c>
       <c r="L421" t="n">
-        <v>1760</v>
+        <v>1902</v>
       </c>
       <c r="M421" t="n">
-        <v>5997</v>
+        <v>8671</v>
       </c>
       <c r="N421" t="n">
-        <v>1961</v>
+        <v>1977</v>
       </c>
       <c r="O421" t="n">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="P421" t="n">
-        <v>710</v>
+        <v>998</v>
       </c>
       <c r="Q421" t="n">
         <v>0</v>
@@ -49712,11 +49704,19 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S421" t="inlineStr"/>
-      <c r="T421" t="inlineStr"/>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>February-19-2023 10:00 AM</t>
+        </is>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
       <c r="U421" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/537-Sinclair-Dr-95116/home/850042</t>
+          <t>https://www.redfin.com/CA/San-Jose/3610-Norwood-Ave-95148/home/1091853</t>
         </is>
       </c>
       <c r="V421" t="inlineStr">
@@ -49726,7 +49726,7 @@
       </c>
       <c r="W421" t="inlineStr">
         <is>
-          <t>ML81897070</t>
+          <t>ML81918053</t>
         </is>
       </c>
       <c r="X421" t="inlineStr">
@@ -49740,21 +49740,21 @@
         </is>
       </c>
       <c r="Z421" t="n">
-        <v>37.35018</v>
+        <v>37.3328631</v>
       </c>
       <c r="AA421" t="n">
-        <v>-121.842915</v>
+        <v>-121.77593</v>
       </c>
       <c r="AB421" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sinclair Dr</t>
+          <t xml:space="preserve"> Norwood Ave</t>
         </is>
       </c>
       <c r="AC421" t="n">
-        <v>795497.4412747296</v>
+        <v>1210206.137233728</v>
       </c>
       <c r="AD421" t="n">
-        <v>1.571343834867604</v>
+        <v>1.569154164381208</v>
       </c>
     </row>
     <row r="422">
@@ -49766,12 +49766,12 @@
       <c r="B422" t="inlineStr"/>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Multi-Family (2-4 Unit)</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>2085 Lynnhaven Dr</t>
+          <t>537 Sinclair Dr</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -49786,17 +49786,17 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>95128</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H422" t="n">
-        <v>1400000</v>
+        <v>1250000</v>
       </c>
       <c r="I422" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J422" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -49804,19 +49804,19 @@
         </is>
       </c>
       <c r="L422" t="n">
-        <v>1659</v>
+        <v>1760</v>
       </c>
       <c r="M422" t="n">
-        <v>7070</v>
+        <v>5997</v>
       </c>
       <c r="N422" t="n">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="O422" t="n">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="P422" t="n">
-        <v>844</v>
+        <v>710</v>
       </c>
       <c r="Q422" t="n">
         <v>0</v>
@@ -49830,7 +49830,7 @@
       <c r="T422" t="inlineStr"/>
       <c r="U422" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/2085-Lynnhaven-Dr-95128/home/1774573</t>
+          <t>https://www.redfin.com/CA/San-Jose/537-Sinclair-Dr-95116/home/850042</t>
         </is>
       </c>
       <c r="V422" t="inlineStr">
@@ -49840,7 +49840,7 @@
       </c>
       <c r="W422" t="inlineStr">
         <is>
-          <t>ML81918305</t>
+          <t>ML81897070</t>
         </is>
       </c>
       <c r="X422" t="inlineStr">
@@ -49854,21 +49854,21 @@
         </is>
       </c>
       <c r="Z422" t="n">
-        <v>37.308642</v>
+        <v>37.35018</v>
       </c>
       <c r="AA422" t="n">
-        <v>-121.929287</v>
+        <v>-121.842915</v>
       </c>
       <c r="AB422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lynnhaven Dr</t>
+          <t xml:space="preserve"> Sinclair Dr</t>
         </is>
       </c>
       <c r="AC422" t="n">
-        <v>882115.9082677164</v>
+        <v>795497.4412747296</v>
       </c>
       <c r="AD422" t="n">
-        <v>1.587093019044737</v>
+        <v>1.571343834867604</v>
       </c>
     </row>
     <row r="423">
@@ -49880,12 +49880,12 @@
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>20846 Almaden Rd</t>
+          <t>2085 Lynnhaven Dr</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -49900,17 +49900,17 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>95120</t>
+          <t>95128</t>
         </is>
       </c>
       <c r="H423" t="n">
-        <v>4500000</v>
+        <v>1400000</v>
       </c>
       <c r="I423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J423" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -49918,19 +49918,19 @@
         </is>
       </c>
       <c r="L423" t="n">
-        <v>4110</v>
+        <v>1659</v>
       </c>
       <c r="M423" t="n">
-        <v>182952</v>
+        <v>7070</v>
       </c>
       <c r="N423" t="n">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="O423" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P423" t="n">
-        <v>1095</v>
+        <v>844</v>
       </c>
       <c r="Q423" t="n">
         <v>0</v>
@@ -49944,7 +49944,7 @@
       <c r="T423" t="inlineStr"/>
       <c r="U423" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/20846-Almaden-Rd-95120/home/1444813</t>
+          <t>https://www.redfin.com/CA/San-Jose/2085-Lynnhaven-Dr-95128/home/1774573</t>
         </is>
       </c>
       <c r="V423" t="inlineStr">
@@ -49954,7 +49954,7 @@
       </c>
       <c r="W423" t="inlineStr">
         <is>
-          <t>ML81917507</t>
+          <t>ML81918305</t>
         </is>
       </c>
       <c r="X423" t="inlineStr">
@@ -49968,21 +49968,21 @@
         </is>
       </c>
       <c r="Z423" t="n">
-        <v>37.1854897</v>
+        <v>37.308642</v>
       </c>
       <c r="AA423" t="n">
-        <v>-121.8159359</v>
+        <v>-121.929287</v>
       </c>
       <c r="AB423" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Almaden Rd</t>
+          <t xml:space="preserve"> Lynnhaven Dr</t>
         </is>
       </c>
       <c r="AC423" t="n">
-        <v>2810566.202504428</v>
+        <v>882115.9082677164</v>
       </c>
       <c r="AD423" t="n">
-        <v>1.601100872838419</v>
+        <v>1.587093019044737</v>
       </c>
     </row>
     <row r="424">
@@ -49994,12 +49994,12 @@
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Multi-Family (2-4 Unit)</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>1944 Bird Ave</t>
+          <t>20846 Almaden Rd</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -50014,17 +50014,17 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>95125</t>
+          <t>95120</t>
         </is>
       </c>
       <c r="H424" t="n">
-        <v>1699950</v>
+        <v>4500000</v>
       </c>
       <c r="I424" t="n">
         <v>3</v>
       </c>
       <c r="J424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -50032,19 +50032,19 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>1498</v>
+        <v>4110</v>
       </c>
       <c r="M424" t="n">
-        <v>6585</v>
+        <v>182952</v>
       </c>
       <c r="N424" t="n">
-        <v>1954</v>
+        <v>1966</v>
       </c>
       <c r="O424" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P424" t="n">
-        <v>1135</v>
+        <v>1095</v>
       </c>
       <c r="Q424" t="n">
         <v>0</v>
@@ -50058,7 +50058,7 @@
       <c r="T424" t="inlineStr"/>
       <c r="U424" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1944-Bird-Ave-95125/home/846591</t>
+          <t>https://www.redfin.com/CA/San-Jose/20846-Almaden-Rd-95120/home/1444813</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
@@ -50068,7 +50068,7 @@
       </c>
       <c r="W424" t="inlineStr">
         <is>
-          <t>ML81917702</t>
+          <t>ML81917507</t>
         </is>
       </c>
       <c r="X424" t="inlineStr">
@@ -50082,21 +50082,21 @@
         </is>
       </c>
       <c r="Z424" t="n">
-        <v>37.2988115</v>
+        <v>37.1854897</v>
       </c>
       <c r="AA424" t="n">
-        <v>-121.8829881</v>
+        <v>-121.8159359</v>
       </c>
       <c r="AB424" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bird Ave</t>
+          <t xml:space="preserve"> Almaden Rd</t>
         </is>
       </c>
       <c r="AC424" t="n">
-        <v>1042538.242844817</v>
+        <v>2810566.202504428</v>
       </c>
       <c r="AD424" t="n">
-        <v>1.630587665888664</v>
+        <v>1.601100872838419</v>
       </c>
     </row>
     <row r="425">
@@ -50108,12 +50108,12 @@
       <c r="B425" t="inlineStr"/>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Multi-Family (2-4 Unit)</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>15 N King Rd</t>
+          <t>1944 Bird Ave</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -50128,37 +50128,37 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95125</t>
         </is>
       </c>
       <c r="H425" t="n">
-        <v>1090000</v>
+        <v>1699950</v>
       </c>
       <c r="I425" t="n">
+        <v>3</v>
+      </c>
+      <c r="J425" t="n">
         <v>2</v>
       </c>
-      <c r="J425" t="n">
-        <v>1</v>
-      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>SAN JOSE</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>864</v>
+        <v>1498</v>
       </c>
       <c r="M425" t="n">
-        <v>9734</v>
+        <v>6585</v>
       </c>
       <c r="N425" t="n">
-        <v>1938</v>
+        <v>1954</v>
       </c>
       <c r="O425" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P425" t="n">
-        <v>1262</v>
+        <v>1135</v>
       </c>
       <c r="Q425" t="n">
         <v>0</v>
@@ -50172,7 +50172,7 @@
       <c r="T425" t="inlineStr"/>
       <c r="U425" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/15-N-King-Rd-95116/home/1109272</t>
+          <t>https://www.redfin.com/CA/San-Jose/1944-Bird-Ave-95125/home/846591</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
@@ -50182,7 +50182,7 @@
       </c>
       <c r="W425" t="inlineStr">
         <is>
-          <t>ML81919293</t>
+          <t>ML81917702</t>
         </is>
       </c>
       <c r="X425" t="inlineStr">
@@ -50196,21 +50196,21 @@
         </is>
       </c>
       <c r="Z425" t="n">
-        <v>37.3532401</v>
+        <v>37.2988115</v>
       </c>
       <c r="AA425" t="n">
-        <v>-121.8563722</v>
+        <v>-121.8829881</v>
       </c>
       <c r="AB425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N King Rd</t>
+          <t xml:space="preserve"> Bird Ave</t>
         </is>
       </c>
       <c r="AC425" t="n">
-        <v>663845.5185212039</v>
+        <v>1042538.242844817</v>
       </c>
       <c r="AD425" t="n">
-        <v>1.64194826897093</v>
+        <v>1.630587665888664</v>
       </c>
     </row>
     <row r="426">
@@ -50227,7 +50227,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>236 &amp; 238 S 31st St</t>
+          <t>15 N King Rd</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -50246,13 +50246,13 @@
         </is>
       </c>
       <c r="H426" t="n">
-        <v>1450000</v>
+        <v>1090000</v>
       </c>
       <c r="I426" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -50260,19 +50260,19 @@
         </is>
       </c>
       <c r="L426" t="n">
-        <v>2150</v>
+        <v>864</v>
       </c>
       <c r="M426" t="n">
-        <v>11548</v>
+        <v>9734</v>
       </c>
       <c r="N426" t="n">
-        <v>1920</v>
+        <v>1938</v>
       </c>
       <c r="O426" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="P426" t="n">
-        <v>674</v>
+        <v>1262</v>
       </c>
       <c r="Q426" t="n">
         <v>0</v>
@@ -50286,7 +50286,7 @@
       <c r="T426" t="inlineStr"/>
       <c r="U426" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/236-S-31st-St-95116/home/882926</t>
+          <t>https://www.redfin.com/CA/San-Jose/15-N-King-Rd-95116/home/1109272</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
@@ -50296,7 +50296,7 @@
       </c>
       <c r="W426" t="inlineStr">
         <is>
-          <t>ML81905890</t>
+          <t>ML81919293</t>
         </is>
       </c>
       <c r="X426" t="inlineStr">
@@ -50310,21 +50310,21 @@
         </is>
       </c>
       <c r="Z426" t="n">
-        <v>37.3465461</v>
+        <v>37.3532401</v>
       </c>
       <c r="AA426" t="n">
-        <v>-121.8572618</v>
+        <v>-121.8563722</v>
       </c>
       <c r="AB426" t="inlineStr">
         <is>
-          <t>st St</t>
+          <t xml:space="preserve"> N King Rd</t>
         </is>
       </c>
       <c r="AC426" t="n">
-        <v>882632.218269364</v>
+        <v>663845.5185212039</v>
       </c>
       <c r="AD426" t="n">
-        <v>1.642813359842123</v>
+        <v>1.64194826897093</v>
       </c>
     </row>
     <row r="427">
@@ -50336,12 +50336,12 @@
       <c r="B427" t="inlineStr"/>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Mobile/Manufactured Home</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>200 Ford Rd #148</t>
+          <t>236 &amp; 238 S 31st St</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -50356,14 +50356,14 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>95138</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H427" t="n">
-        <v>309000</v>
+        <v>1450000</v>
       </c>
       <c r="I427" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J427" t="n">
         <v>2</v>
@@ -50374,19 +50374,19 @@
         </is>
       </c>
       <c r="L427" t="n">
-        <v>1440</v>
+        <v>2150</v>
       </c>
       <c r="M427" t="n">
-        <v>0</v>
+        <v>11548</v>
       </c>
       <c r="N427" t="n">
-        <v>1983</v>
+        <v>1920</v>
       </c>
       <c r="O427" t="n">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="P427" t="n">
-        <v>215</v>
+        <v>674</v>
       </c>
       <c r="Q427" t="n">
         <v>0</v>
@@ -50400,7 +50400,7 @@
       <c r="T427" t="inlineStr"/>
       <c r="U427" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/200-Ford-Rd-95138/unit-148/home/974882</t>
+          <t>https://www.redfin.com/CA/San-Jose/236-S-31st-St-95116/home/882926</t>
         </is>
       </c>
       <c r="V427" t="inlineStr">
@@ -50410,7 +50410,7 @@
       </c>
       <c r="W427" t="inlineStr">
         <is>
-          <t>ML81914347</t>
+          <t>ML81905890</t>
         </is>
       </c>
       <c r="X427" t="inlineStr">
@@ -50424,17 +50424,21 @@
         </is>
       </c>
       <c r="Z427" t="n">
-        <v>37.2531444</v>
+        <v>37.3465461</v>
       </c>
       <c r="AA427" t="n">
-        <v>-121.7933309</v>
-      </c>
-      <c r="AB427" t="inlineStr"/>
+        <v>-121.8572618</v>
+      </c>
+      <c r="AB427" t="inlineStr">
+        <is>
+          <t>st St</t>
+        </is>
+      </c>
       <c r="AC427" t="n">
-        <v>187560.8841504444</v>
+        <v>882632.218269364</v>
       </c>
       <c r="AD427" t="n">
-        <v>1.647465042615965</v>
+        <v>1.642813359842123</v>
       </c>
     </row>
     <row r="428">
@@ -50446,12 +50450,12 @@
       <c r="B428" t="inlineStr"/>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Mobile/Manufactured Home</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>1501 Darlene Ave</t>
+          <t>200 Ford Rd #148</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -50466,14 +50470,14 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>95125</t>
+          <t>95138</t>
         </is>
       </c>
       <c r="H428" t="n">
-        <v>1699000</v>
+        <v>309000</v>
       </c>
       <c r="I428" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J428" t="n">
         <v>2</v>
@@ -50484,19 +50488,19 @@
         </is>
       </c>
       <c r="L428" t="n">
-        <v>891</v>
+        <v>1440</v>
       </c>
       <c r="M428" t="n">
-        <v>6098</v>
+        <v>0</v>
       </c>
       <c r="N428" t="n">
-        <v>1951</v>
+        <v>1983</v>
       </c>
       <c r="O428" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P428" t="n">
-        <v>1907</v>
+        <v>215</v>
       </c>
       <c r="Q428" t="n">
         <v>0</v>
@@ -50506,19 +50510,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S428" t="inlineStr">
-        <is>
-          <t>February-19-2023 01:00 PM</t>
-        </is>
-      </c>
-      <c r="T428" t="inlineStr">
-        <is>
-          <t>February-19-2023 04:00 PM</t>
-        </is>
-      </c>
+      <c r="S428" t="inlineStr"/>
+      <c r="T428" t="inlineStr"/>
       <c r="U428" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1501-Darlene-Ave-95125/home/1457616</t>
+          <t>https://www.redfin.com/CA/San-Jose/200-Ford-Rd-95138/unit-148/home/974882</t>
         </is>
       </c>
       <c r="V428" t="inlineStr">
@@ -50528,7 +50524,7 @@
       </c>
       <c r="W428" t="inlineStr">
         <is>
-          <t>ML81915579</t>
+          <t>ML81914347</t>
         </is>
       </c>
       <c r="X428" t="inlineStr">
@@ -50542,21 +50538,17 @@
         </is>
       </c>
       <c r="Z428" t="n">
-        <v>37.2829198</v>
+        <v>37.2531444</v>
       </c>
       <c r="AA428" t="n">
-        <v>-121.8974162</v>
-      </c>
-      <c r="AB428" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Darlene Ave</t>
-        </is>
-      </c>
+        <v>-121.7933309</v>
+      </c>
+      <c r="AB428" t="inlineStr"/>
       <c r="AC428" t="n">
-        <v>1012406.962879699</v>
+        <v>187560.8841504444</v>
       </c>
       <c r="AD428" t="n">
-        <v>1.678178896722865</v>
+        <v>1.647465042615965</v>
       </c>
     </row>
     <row r="429">
@@ -50573,7 +50565,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>2779 Aldworth Dr</t>
+          <t>1501 Darlene Ave</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -50588,17 +50580,17 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>95148</t>
+          <t>95125</t>
         </is>
       </c>
       <c r="H429" t="n">
-        <v>2188888</v>
+        <v>1699000</v>
       </c>
       <c r="I429" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J429" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -50606,19 +50598,19 @@
         </is>
       </c>
       <c r="L429" t="n">
-        <v>2243</v>
+        <v>891</v>
       </c>
       <c r="M429" t="n">
-        <v>9175</v>
+        <v>6098</v>
       </c>
       <c r="N429" t="n">
-        <v>1979</v>
+        <v>1951</v>
       </c>
       <c r="O429" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P429" t="n">
-        <v>976</v>
+        <v>1907</v>
       </c>
       <c r="Q429" t="n">
         <v>0</v>
@@ -50640,7 +50632,7 @@
       </c>
       <c r="U429" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/2779-Aldworth-Dr-95148/home/718391</t>
+          <t>https://www.redfin.com/CA/San-Jose/1501-Darlene-Ave-95125/home/1457616</t>
         </is>
       </c>
       <c r="V429" t="inlineStr">
@@ -50650,7 +50642,7 @@
       </c>
       <c r="W429" t="inlineStr">
         <is>
-          <t>ML81915581</t>
+          <t>ML81915579</t>
         </is>
       </c>
       <c r="X429" t="inlineStr">
@@ -50664,21 +50656,21 @@
         </is>
       </c>
       <c r="Z429" t="n">
-        <v>37.3341018</v>
+        <v>37.2829198</v>
       </c>
       <c r="AA429" t="n">
-        <v>-121.786389</v>
+        <v>-121.8974162</v>
       </c>
       <c r="AB429" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aldworth Dr</t>
+          <t xml:space="preserve"> Darlene Ave</t>
         </is>
       </c>
       <c r="AC429" t="n">
-        <v>1287708.634407527</v>
+        <v>1012406.962879699</v>
       </c>
       <c r="AD429" t="n">
-        <v>1.699831733291984</v>
+        <v>1.678178896722865</v>
       </c>
     </row>
     <row r="430">
@@ -50690,12 +50682,12 @@
       <c r="B430" t="inlineStr"/>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Multi-Family (5+ Unit)</t>
+          <t>Single Family Residential</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>794 Deland Ave</t>
+          <t>2779 Aldworth Dr</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -50710,17 +50702,17 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>95128</t>
+          <t>95148</t>
         </is>
       </c>
       <c r="H430" t="n">
-        <v>2290000</v>
+        <v>2188888</v>
       </c>
       <c r="I430" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J430" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -50728,19 +50720,19 @@
         </is>
       </c>
       <c r="L430" t="n">
-        <v>3570</v>
+        <v>2243</v>
       </c>
       <c r="M430" t="n">
-        <v>6458</v>
+        <v>9175</v>
       </c>
       <c r="N430" t="n">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="O430" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="P430" t="n">
-        <v>641</v>
+        <v>976</v>
       </c>
       <c r="Q430" t="n">
         <v>0</v>
@@ -50750,11 +50742,19 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="S430" t="inlineStr"/>
-      <c r="T430" t="inlineStr"/>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>February-19-2023 01:00 PM</t>
+        </is>
+      </c>
+      <c r="T430" t="inlineStr">
+        <is>
+          <t>February-19-2023 04:00 PM</t>
+        </is>
+      </c>
       <c r="U430" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/794-Deland-Ave-95128/home/816084</t>
+          <t>https://www.redfin.com/CA/San-Jose/2779-Aldworth-Dr-95148/home/718391</t>
         </is>
       </c>
       <c r="V430" t="inlineStr">
@@ -50764,7 +50764,7 @@
       </c>
       <c r="W430" t="inlineStr">
         <is>
-          <t>ML81916978</t>
+          <t>ML81915581</t>
         </is>
       </c>
       <c r="X430" t="inlineStr">
@@ -50778,21 +50778,21 @@
         </is>
       </c>
       <c r="Z430" t="n">
-        <v>37.3124303</v>
+        <v>37.3341018</v>
       </c>
       <c r="AA430" t="n">
-        <v>-121.9163545</v>
+        <v>-121.786389</v>
       </c>
       <c r="AB430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deland Ave</t>
+          <t xml:space="preserve"> Aldworth Dr</t>
         </is>
       </c>
       <c r="AC430" t="n">
-        <v>1308605.039985693</v>
+        <v>1287708.634407527</v>
       </c>
       <c r="AD430" t="n">
-        <v>1.749955051392005</v>
+        <v>1.699831733291984</v>
       </c>
     </row>
     <row r="431">
@@ -50809,7 +50809,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>2604 Sierra Vista Ct</t>
+          <t>794 Deland Ave</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -50824,17 +50824,17 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>95116</t>
+          <t>95128</t>
         </is>
       </c>
       <c r="H431" t="n">
-        <v>3258000</v>
+        <v>2290000</v>
       </c>
       <c r="I431" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J431" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -50842,19 +50842,19 @@
         </is>
       </c>
       <c r="L431" t="n">
-        <v>4889</v>
+        <v>3570</v>
       </c>
       <c r="M431" t="n">
-        <v>10272</v>
+        <v>6458</v>
       </c>
       <c r="N431" t="n">
-        <v>1978</v>
+        <v>1960</v>
       </c>
       <c r="O431" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="P431" t="n">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="Q431" t="n">
         <v>0</v>
@@ -50868,7 +50868,7 @@
       <c r="T431" t="inlineStr"/>
       <c r="U431" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/2604-Sierra-Vista-Ct-95116/home/1205542</t>
+          <t>https://www.redfin.com/CA/San-Jose/794-Deland-Ave-95128/home/816084</t>
         </is>
       </c>
       <c r="V431" t="inlineStr">
@@ -50878,7 +50878,7 @@
       </c>
       <c r="W431" t="inlineStr">
         <is>
-          <t>ML81915745</t>
+          <t>ML81916978</t>
         </is>
       </c>
       <c r="X431" t="inlineStr">
@@ -50892,21 +50892,21 @@
         </is>
       </c>
       <c r="Z431" t="n">
-        <v>37.359908</v>
+        <v>37.3124303</v>
       </c>
       <c r="AA431" t="n">
-        <v>-121.835244</v>
+        <v>-121.9163545</v>
       </c>
       <c r="AB431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sierra Vista Ct</t>
+          <t xml:space="preserve"> Deland Ave</t>
         </is>
       </c>
       <c r="AC431" t="n">
-        <v>1854482.44870351</v>
+        <v>1308605.039985693</v>
       </c>
       <c r="AD431" t="n">
-        <v>1.756824391774484</v>
+        <v>1.749955051392005</v>
       </c>
     </row>
     <row r="432">
@@ -50918,12 +50918,12 @@
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Single Family Residential</t>
+          <t>Multi-Family (5+ Unit)</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>1231 Minnesota Ave</t>
+          <t>2604 Sierra Vista Ct</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -50938,37 +50938,37 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>95125-3839</t>
+          <t>95116</t>
         </is>
       </c>
       <c r="H432" t="n">
-        <v>1800000</v>
+        <v>3258000</v>
       </c>
       <c r="I432" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J432" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="L432" t="n">
-        <v>1250</v>
+        <v>4889</v>
       </c>
       <c r="M432" t="n">
-        <v>7810</v>
+        <v>10272</v>
       </c>
       <c r="N432" t="n">
-        <v>1908</v>
+        <v>1978</v>
       </c>
       <c r="O432" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="P432" t="n">
-        <v>1440</v>
+        <v>666</v>
       </c>
       <c r="Q432" t="n">
         <v>0</v>
@@ -50982,17 +50982,17 @@
       <c r="T432" t="inlineStr"/>
       <c r="U432" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/CA/San-Jose/1231-Minnesota-Ave-95125/home/1120203</t>
+          <t>https://www.redfin.com/CA/San-Jose/2604-Sierra-Vista-Ct-95116/home/1205542</t>
         </is>
       </c>
       <c r="V432" t="inlineStr">
         <is>
-          <t>bridgeMLS, Bay East AOR, or Contra Costa AOR</t>
+          <t>MLSListings</t>
         </is>
       </c>
       <c r="W432" t="inlineStr">
         <is>
-          <t>41018702</t>
+          <t>ML81915745</t>
         </is>
       </c>
       <c r="X432" t="inlineStr">
@@ -51006,21 +51006,21 @@
         </is>
       </c>
       <c r="Z432" t="n">
-        <v>37.3015083</v>
+        <v>37.359908</v>
       </c>
       <c r="AA432" t="n">
-        <v>-121.903018</v>
+        <v>-121.835244</v>
       </c>
       <c r="AB432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minnesota Ave</t>
+          <t xml:space="preserve"> Sierra Vista Ct</t>
         </is>
       </c>
       <c r="AC432" t="n">
-        <v>1018015.055797458</v>
+        <v>1854482.44870351</v>
       </c>
       <c r="AD432" t="n">
-        <v>1.768146737859369</v>
+        <v>1.756824391774484</v>
       </c>
     </row>
     <row r="433">
